--- a/Docs/Analisis_Rutas_Api_Fast Business Network.xlsx
+++ b/Docs/Analisis_Rutas_Api_Fast Business Network.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Clases\Grupo-2-clase-SW\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Grupo-2-clase-SW\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D0BF24-24A2-45D4-AE6E-B64BD0FE7B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7856473D-C13D-4E35-A2AD-FD8F8BB3F885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -36,9 +36,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -102,18 +99,12 @@
     <t>Fecha Real</t>
   </si>
   <si>
-    <t>nombre,email,telefono,direccion,¿Qué desea hacer?,pswd, verificar pswd</t>
-  </si>
-  <si>
     <t>Agregar un usuario</t>
   </si>
   <si>
     <t>Entrar al menu principal</t>
   </si>
   <si>
-    <t>Buscar categoria</t>
-  </si>
-  <si>
     <t>delete</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>Modificar Servicio</t>
   </si>
   <si>
-    <t>Eliminar Servicio</t>
-  </si>
-  <si>
     <t>Agregar Servicio</t>
   </si>
   <si>
@@ -147,12 +135,6 @@
     <t>Análisis Fast Business Network</t>
   </si>
   <si>
-    <t xml:space="preserve">Agregar Categoria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar Categoria </t>
-  </si>
-  <si>
     <t>Bertha Mercedes Escoto</t>
   </si>
   <si>
@@ -165,28 +147,28 @@
     <t>Selvin Martinez Noruega</t>
   </si>
   <si>
-    <t xml:space="preserve">Hansel Andree Vasquez </t>
-  </si>
-  <si>
-    <t>nombreempresa,nombre servicio,descripcion,precio,horario,agregar imagen</t>
-  </si>
-  <si>
-    <t>nombreempresanombre servicio,descripcion,precio,horario,agregar imagen</t>
-  </si>
-  <si>
-    <t>Numero de la categoria, Nombre de la categoria</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>/Category/all/id</t>
-  </si>
-  <si>
-    <t>/Category/new</t>
-  </si>
-  <si>
-    <t>/Category/one/:id</t>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>/producto/new</t>
+  </si>
+  <si>
+    <t>/producto/one/:id</t>
+  </si>
+  <si>
+    <t>Eliminar Producto</t>
+  </si>
+  <si>
+    <t>Modificar Producto</t>
+  </si>
+  <si>
+    <t>Agregar Producto</t>
+  </si>
+  <si>
+    <t>nombreempresa,nombre producto,descripcion,precio,horario,contacto</t>
+  </si>
+  <si>
+    <t>nombreempresa,nombre servicio,descripcion,precio,horario,contacto</t>
   </si>
 </sst>
 </file>
@@ -266,8 +248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:K13" totalsRowShown="0">
-  <autoFilter ref="A2:K13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:K11" totalsRowShown="0">
+  <autoFilter ref="A2:K11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Caso de Uso"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Entidad"/>
@@ -582,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -601,7 +583,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -613,34 +595,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -648,53 +630,53 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -702,193 +684,189 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
